--- a/classfiers/bottleneck/MLP/smote/bottleneck-mlp-smote-results.xlsx
+++ b/classfiers/bottleneck/MLP/smote/bottleneck-mlp-smote-results.xlsx
@@ -467,16 +467,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.75177304964539</v>
+        <v>0.7570422535211268</v>
       </c>
       <c r="C2" t="n">
-        <v>0.986046511627907</v>
+        <v>1</v>
       </c>
       <c r="D2" t="n">
-        <v>0.8531187122736418</v>
+        <v>0.8617234468937875</v>
       </c>
       <c r="E2" t="n">
-        <v>0.9226907194088241</v>
+        <v>0.9531638723634397</v>
       </c>
     </row>
     <row r="3">
@@ -486,16 +486,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.9906103286384976</v>
+        <v>1</v>
       </c>
       <c r="C3" t="n">
-        <v>0.985981308411215</v>
+        <v>1</v>
       </c>
       <c r="D3" t="n">
-        <v>0.9882903981264637</v>
+        <v>1</v>
       </c>
       <c r="E3" t="n">
-        <v>0.9988046076939795</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4">
@@ -505,13 +505,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.9907407407407407</v>
+        <v>1</v>
       </c>
       <c r="C4" t="n">
         <v>1</v>
       </c>
       <c r="D4" t="n">
-        <v>0.9953488372093023</v>
+        <v>1</v>
       </c>
       <c r="E4" t="n">
         <v>1</v>
@@ -524,13 +524,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.9861751152073732</v>
+        <v>1</v>
       </c>
       <c r="C5" t="n">
         <v>1</v>
       </c>
       <c r="D5" t="n">
-        <v>0.9930394431554525</v>
+        <v>1</v>
       </c>
       <c r="E5" t="n">
         <v>1</v>
@@ -562,16 +562,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.9438598468464005</v>
+        <v>0.9514084507042254</v>
       </c>
       <c r="C7" t="n">
-        <v>0.9944055640078243</v>
+        <v>1</v>
       </c>
       <c r="D7" t="n">
-        <v>0.9659594781529719</v>
+        <v>0.9723446893787575</v>
       </c>
       <c r="E7" t="n">
-        <v>0.9842990654205608</v>
+        <v>0.990632774472688</v>
       </c>
     </row>
   </sheetData>

--- a/classfiers/bottleneck/MLP/smote/bottleneck-mlp-smote-results.xlsx
+++ b/classfiers/bottleneck/MLP/smote/bottleneck-mlp-smote-results.xlsx
@@ -467,16 +467,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.7570422535211268</v>
+        <v>0.7727272727272727</v>
       </c>
       <c r="C2" t="n">
         <v>1</v>
       </c>
       <c r="D2" t="n">
-        <v>0.8617234468937875</v>
+        <v>0.8717948717948718</v>
       </c>
       <c r="E2" t="n">
-        <v>0.9531638723634397</v>
+        <v>0.94281850671303</v>
       </c>
     </row>
     <row r="3">
@@ -562,16 +562,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.9514084507042254</v>
+        <v>0.9545454545454545</v>
       </c>
       <c r="C7" t="n">
         <v>1</v>
       </c>
       <c r="D7" t="n">
-        <v>0.9723446893787575</v>
+        <v>0.9743589743589745</v>
       </c>
       <c r="E7" t="n">
-        <v>0.990632774472688</v>
+        <v>0.988563701342606</v>
       </c>
     </row>
   </sheetData>
